--- a/biology/Médecine/Artère_récurrente_radiale/Artère_récurrente_radiale.xlsx
+++ b/biology/Médecine/Artère_récurrente_radiale/Artère_récurrente_radiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_r%C3%A9currente_radiale</t>
+          <t>Artère_récurrente_radiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère récurrente radiale (ou artère récurrente radiale antérieure ou artère des épicondyliens) est une artère de l'avant-bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_r%C3%A9currente_radiale</t>
+          <t>Artère_récurrente_radiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère récurrente radiale naît de l'artère radiale immédiatement sous le coude.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_r%C3%A9currente_radiale</t>
+          <t>Artère_récurrente_radiale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère récurrente radiale remonte dans le sillon bicipital latéral entre les branches du nerf radial. Elle repose sur le muscle supinateur puis passe entre le muscle brachio-radial et le muscle brachial
 Elle irrigue ces trois muscles et l'articulation du coude, et s'anastomose avec la partie terminale de l'artère profonde du bras.
